--- a/EXCEL/assignment/VLOOKUP 1.xlsx
+++ b/EXCEL/assignment/VLOOKUP 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Kumar\Desktop\DATA ANALYTICS ASSIGNMENTS\EXCEL\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Kumar\Documents\GitHub\Amrutha\EXCEL\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F5E19-F5F8-49D9-BD55-F6AB57209972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D821106-6DC0-4CB9-9646-E27603FD48DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="75" windowWidth="15345" windowHeight="15405" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP 1 - Question" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,10 @@
       <c r="B32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <f>VLOOKUP(C8,C4:F16,3,FALSE)</f>
+        <v>19327</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
